--- a/other/Glass Making/TZN glass 2 dopants.xlsx
+++ b/other/Glass Making/TZN glass 2 dopants.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="TZN 2 dopants batch glass" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>TeO2</t>
   </si>
@@ -47,9 +48,6 @@
     <t>Dopant 2</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Molar Percent</t>
   </si>
   <si>
@@ -78,6 +76,84 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Zinc Oxide</t>
+  </si>
+  <si>
+    <t>Sodium Oxide</t>
+  </si>
+  <si>
+    <t>Tellurium Oxide</t>
+  </si>
+  <si>
+    <t>100% purity assummed, USE ONLY ULTRAPURE COMPOUNDS 99.999% FOR GLASSMAKING.</t>
+  </si>
+  <si>
+    <t>Sodium Carbonate</t>
+  </si>
+  <si>
+    <t>Erbium</t>
+  </si>
+  <si>
+    <t>Ytterbium</t>
+  </si>
+  <si>
+    <t>Tellurium</t>
+  </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>Sodium</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>Molecular Weight (g/mol)</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Te</t>
+  </si>
+  <si>
+    <t>Yb</t>
+  </si>
+  <si>
+    <t>Zn</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>Formula Weight (g/mol)</t>
+  </si>
+  <si>
+    <t>Reference Table</t>
   </si>
 </sst>
 </file>
@@ -85,9 +161,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -96,6 +172,14 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -122,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -208,17 +292,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -228,8 +301,48 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -237,21 +350,84 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -261,8 +437,23 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -271,32 +462,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,190 +788,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="33">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <f>2*'TZN 2 dopants batch glass'!J9+3*'TZN 2 dopants batch glass'!J14</f>
+        <v>382.51499999999999</v>
+      </c>
+      <c r="E5" s="10">
+        <f>D5*(C5/100)</f>
+        <v>3.8251499999999998</v>
+      </c>
+      <c r="F5" s="28">
+        <f>$B$3*(E5/$E$10)</f>
+        <v>0.39778084774364325</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <f>2*'TZN 2 dopants batch glass'!J10+3*'TZN 2 dopants batch glass'!J14</f>
+        <v>394.10500000000002</v>
+      </c>
+      <c r="E6" s="1">
+        <f>D6*(C6/100)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="29">
+        <f>$B$3*(E6/$E$10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <f>80-C5-C6</f>
+        <v>79</v>
+      </c>
+      <c r="D7" s="1">
+        <f>'TZN 2 dopants batch glass'!J11+'TZN 2 dopants batch glass'!J14*2</f>
+        <v>159.59799999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <f>D7*(C7/100)</f>
+        <v>126.08242</v>
+      </c>
+      <c r="F7" s="29">
+        <f>$B$3*(E7/$E$10)</f>
+        <v>13.111426195879922</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="D6" s="13">
-        <v>382.56</v>
-      </c>
-      <c r="E6" s="14">
-        <f>D6*(C6/100)</f>
-        <v>2.8691999999999998</v>
-      </c>
-      <c r="F6" s="19">
-        <f>$D$1*(E6/$E$12)</f>
-        <v>0.29952563624317263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>394.08</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" ref="E7:E10" si="0">D7*(C7/100)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="20">
-        <f>$D$1*(E7/$E$12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <f>80-C6-C7</f>
-        <v>79.25</v>
-      </c>
-      <c r="D8" s="1">
-        <v>159.6</v>
+      <c r="D8" s="14">
+        <f>'TZN 2 dopants batch glass'!J12+'TZN 2 dopants batch glass'!J14</f>
+        <v>81.378999999999991</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>126.48299999999999</v>
-      </c>
-      <c r="F8" s="20">
-        <f>$D$1*(E8/$E$12)</f>
-        <v>13.203994510297369</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
-        <v>1</v>
+        <f>D8*(C8/100)</f>
+        <v>8.1379000000000001</v>
+      </c>
+      <c r="F8" s="29">
+        <f>$B$3*(E8/$E$10)</f>
+        <v>0.84626766554331068</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="12" t="str">
+        <f>IF(A9='TZN 2 dopants batch glass'!H17, 'TZN 2 dopants batch glass'!I17, 'TZN 2 dopants batch glass'!I18)</f>
+        <v>Na2O</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
       </c>
-      <c r="D9" s="1">
-        <v>81.37</v>
+      <c r="D9" s="12">
+        <f>IF(A9='TZN 2 dopants batch glass'!H17, 'TZN 2 dopants batch glass'!J17, 'TZN 2 dopants batch glass'!J18)</f>
+        <v>61.978999999999999</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>8.1370000000000005</v>
-      </c>
-      <c r="F9" s="20">
-        <f>$D$1*(E9/$E$12)</f>
-        <v>0.84944935944189881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="16" t="s">
+        <f>D9*(C9/100)</f>
+        <v>6.1979000000000006</v>
+      </c>
+      <c r="F9" s="29">
+        <f>$B$3*(E9/$E$10)</f>
+        <v>0.6445252908331246</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="18">
+        <v>167.25899999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31">
+        <f t="shared" ref="C10" si="0">SUM(C5:C9)</f>
+        <v>100</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31">
+        <f>SUM(E5:E9)</f>
+        <v>144.24337</v>
+      </c>
+      <c r="F10" s="38">
+        <f>SUM(F5:F9)</f>
+        <v>15</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="18">
+        <v>173.054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="18">
+        <v>127.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="18">
+        <v>65.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="18">
+        <v>22.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="18">
+        <v>15.999000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="19">
+        <v>12.010999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="H17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1">
-        <v>61.98</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>6.1980000000000004</v>
-      </c>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="s">
+      <c r="J17" s="19">
+        <f>'TZN 2 dopants batch glass'!J13*2+'TZN 2 dopants batch glass'!J14</f>
+        <v>61.978999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="13"/>
+      <c r="H18" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="22">
-        <f>$D$1*(E10/$E$12)*1.71</f>
-        <v>1.1064221447700284</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="11">
-        <f>SUM(E6:E10)</f>
-        <v>143.68719999999999</v>
-      </c>
-      <c r="F12" s="23">
-        <f>SUM(F6:F11)</f>
-        <v>15.459391650752469</v>
+      <c r="J18" s="24">
+        <f>'TZN 2 dopants batch glass'!J13*2+'TZN 2 dopants batch glass'!J15+'TZN 2 dopants batch glass'!J14*3</f>
+        <v>105.988</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H7:J7"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select compound" prompt="Sodium Oxide or Sodium Carbonate can be used to make TZN glass." sqref="A9">
+      <formula1>$H$17:$H$18</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>